--- a/biology/Médecine/Phénomène_de_Koebner/Phénomène_de_Koebner.xlsx
+++ b/biology/Médecine/Phénomène_de_Koebner/Phénomène_de_Koebner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8ne_de_Koebner</t>
+          <t>Phénomène_de_Koebner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phénomène de Kœbner ou Köbner est l'apparition sur le trajet d'une égratignure, de nouveaux éléments d'une dermatose dont le sujet est déjà porteur. 
-Ce phénomène est principalement observé dans le psoriasis ou le lichen plan mais se rencontre également dans les cas de verrues et de molluscum contagiosum[1].
+Ce phénomène est principalement observé dans le psoriasis ou le lichen plan mais se rencontre également dans les cas de verrues et de molluscum contagiosum.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8ne_de_Koebner</t>
+          <t>Phénomène_de_Koebner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été décrit par Heinrich Köbner (en) en 1876 à propos du psoriasis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit par Heinrich Köbner (en) en 1876 à propos du psoriasis.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8ne_de_Koebner</t>
+          <t>Phénomène_de_Koebner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une personne atteinte de pelade universelle (alopécie de type areata) a conservé des taches de cheveux ; uniquement aux endroits où auparavant existait un psoriasis[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une personne atteinte de pelade universelle (alopécie de type areata) a conservé des taches de cheveux ; uniquement aux endroits où auparavant existait un psoriasis. 
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8ne_de_Koebner</t>
+          <t>Phénomène_de_Koebner</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il reste inconnu[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reste inconnu.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8ne_de_Koebner</t>
+          <t>Phénomène_de_Koebner</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Phénomène inverse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'inverse du phénomène de Kœbner est  le phénomène de Renbök[5] (il s'agit d'un néologisme créé en écrivant « Köbner » à l'envers) ; il désigne la réapparition ou la conservation d'une peau normale sur des zones préalablement modifiées par une dermatose.  
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inverse du phénomène de Kœbner est  le phénomène de Renbök (il s'agit d'un néologisme créé en écrivant « Köbner » à l'envers) ; il désigne la réapparition ou la conservation d'une peau normale sur des zones préalablement modifiées par une dermatose.  
 </t>
         </is>
       </c>
